--- a/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
@@ -451,855 +451,1155 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>006160</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>博道启航混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>006161</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>博道启航混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>91.31</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007126</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博道远航混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007127</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>博道远航混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>233001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大摩基础行业混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>79.85</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>233007</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大摩卓越成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160610</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华动力增长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>95.13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>163302</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大摩资源优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009791</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>166027</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>233008</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大摩消费领航混合基金</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>79.84</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>001830</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>融通跨界成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1309,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,15 +1630,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003495</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合A</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>24.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0717</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003496</t>
+          <t>010314</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘尚灵活配置混合C</t>
+          <t>摩根士丹利华鑫内需增长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7271</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>163302</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>大摩资源优选混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6783</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007424</t>
+          <t>233007</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合C</t>
+          <t>大摩卓越成长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>69.92</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5843</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>233001</t>
+          <t>160610</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大摩基础行业混合</t>
+          <t>鹏华动力增长混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.73</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4705</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>96.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>233007</t>
+          <t>233001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大摩卓越成长混合</t>
+          <t>大摩基础行业混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>233008</t>
+          <t>671010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大摩消费领航混合基金</t>
+          <t>西部利得策略优选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.09</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8.81</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1602,25 +2002,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010314</t>
+          <t>233008</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫内需增长混合</t>
+          <t>大摩消费领航混合基金</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010779</t>
+          <t>002252</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合A</t>
+          <t>融通成长30灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.25</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010780</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>西部利得量化优选一年持有期混合C</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.25</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>009557</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>申万菱信创业板量化精选股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001830</t>
+          <t>010779</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>融通跨界成长灵活配置混合</t>
+          <t>西部利得量化优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>003495</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>鹏华弘尚灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>160610</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华动力增长混合(LOF)</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.06</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002252</t>
+          <t>200015</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>融通成长30灵活配置混合</t>
+          <t>长城优化升级混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>671010</t>
+          <t>001830</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合A</t>
+          <t>融通跨界成长灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011060</t>
+          <t>010780</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>西部利得策略优选混合C</t>
+          <t>西部利得量化优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>163302</t>
+          <t>007423</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大摩资源优选混合(LOF)</t>
+          <t>西部利得聚禾灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>92.03</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9.33</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>33.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>96.82</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>001271</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>英大灵活配置混合B</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2060,15 +2620,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>37.25</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1.23</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>200015</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>长城优化升级混合</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>83.17</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>36.07</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1.22</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>007424</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>西部利得聚禾灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>003496</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>鹏华弘尚灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>33.29</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009557</t>
+          <t>011060</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>申万菱信创业板量化精选股票A</t>
+          <t>西部利得策略优选混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>92.12</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2256,15 +2886,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2911,4 +2912,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2853</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>63.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3956,4 +3957,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5138</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4856</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001291</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化多策略股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4355,4 +4356,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4364,7 +4365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4375,17 +4376,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4395,14 +4416,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.95</v>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4411,14 +4454,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.48</v>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4427,14 +4492,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.13</v>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4443,13 +4530,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010036</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指建筑材料指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970023</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天风天盈一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>52.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159745</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证全指建筑材料交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516750</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指建筑材料ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010038</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发恒通六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5333,7 +5334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5344,17 +5345,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5364,14 +5385,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.02</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0069</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5380,14 +5423,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.95</v>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5396,14 +5461,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.48</v>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5412,14 +5499,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.13</v>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5428,13 +5537,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5922,7 +5923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5933,17 +5934,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5953,14 +5974,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.42</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5969,14 +6012,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.02</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5985,14 +6050,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.95</v>
       </c>
     </row>
     <row r="5">
@@ -6001,14 +6088,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.48</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6017,14 +6126,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.13</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -6033,13 +6164,941 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.550000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>29</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>9.550000000000001</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>2.42</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>3.02</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>1.95</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>4.48</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>5.13</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>29</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.08</v>
       </c>
     </row>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>162607</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>景顺长城资源垄断混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.18</t>
+          <t>23.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8708</t>
+          <t>1.7417</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162607</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城资源垄断混合(LOF)</t>
+          <t>中欧养老产业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8366</t>
+          <t>1.5915</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000772</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中国回报灵活配置混合</t>
+          <t>中欧睿见混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.52</t>
+          <t>18.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5112</t>
+          <t>1.3437</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>000772</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>景顺长城中国回报灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.72</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4461</t>
+          <t>1.3417</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -818,26 +835,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.25</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>99.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.3083</t>
+          <t>0.8167</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>011710</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>中欧睿泽混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>90.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3222</t>
+          <t>0.6622</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012778</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧养老产业混合C</t>
+          <t>宝盈优势产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2958</t>
+          <t>0.2881</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>233007</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大摩卓越成长混合</t>
+          <t>天弘优质成长企业精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2582</t>
+          <t>0.2836</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010314</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫内需增长混合</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>99.40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2521</t>
+          <t>0.2830</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>012778</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>中欧养老产业混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1687</t>
+          <t>0.1980</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>天弘周期策略混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.1916</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011351</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合A</t>
+          <t>宝盈转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0461</t>
+          <t>0.1814</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>景顺长城中小创精选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24.62</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.1518</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>012771</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>宝盈优势产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>350001</t>
+          <t>011711</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天治财富增长混合</t>
+          <t>中欧睿泽混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.51</t>
+          <t>90.88</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0245</t>
+          <t>0.0684</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004694</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合A</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0477</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1264,36 +1281,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009499</t>
+          <t>015458</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合A</t>
+          <t>天弘周期策略混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1302,36 +1319,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>015769</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
+          <t>天弘低碳经济混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>79.16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0171</t>
+          <t>0.0414</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1340,32 +1357,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>015770</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>天弘低碳经济混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>79.16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1378,32 +1395,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>天弘通利混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1416,36 +1433,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011352</t>
+          <t>004694</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合C</t>
+          <t>天弘策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1454,36 +1471,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>015481</t>
+          <t>015389</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中欧睿见混合C</t>
+          <t>宝盈转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1492,36 +1509,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009755</t>
+          <t>015481</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合C</t>
+          <t>中欧睿见混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1540,26 +1557,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1568,36 +1585,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004748</t>
+          <t>015460</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合C</t>
+          <t>天弘优质成长企业精选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1606,34 +1623,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>014869</t>
+          <t>004748</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫内需增长混合C</t>
+          <t>天弘策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1642,6 +1661,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2229,7 +3290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3197,7 +4258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3595,7 +4656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4639,7 +5700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5949,7 +7010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300737-科顺股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>9.5</v>
+        <v>15.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>9.550000000000001</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>2.42</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>3.02</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>1.95</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>4.48</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>5.13</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1188 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>29</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160610</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华动力增长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1145</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5913</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4890</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>34.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +1848,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162607</t>
+          <t>000772</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城资源垄断混合（LOF）</t>
+          <t>景顺长城中国回报灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.41</t>
+          <t>35.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7417</t>
+          <t>3.3436</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1886,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>162607</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧养老产业混合A</t>
+          <t>景顺长城资源垄断混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.51</t>
+          <t>24.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>93.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5915</t>
+          <t>2.3316</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -759,26 +1934,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.74</t>
+          <t>21.47</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>90.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3437</t>
+          <t>1.9452</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1962,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000772</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城中国回报灵活配置混合</t>
+          <t>中欧养老产业混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.25</t>
+          <t>26.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3417</t>
+          <t>1.4016</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +2000,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>206002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>鹏华精选成长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.11</t>
+          <t>31.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8167</t>
+          <t>1.0930</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +2038,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011710</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧睿泽混合A</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>95.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6622</t>
+          <t>0.9686</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +2076,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>011710</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合A</t>
+          <t>中欧睿泽混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2881</t>
+          <t>0.8372</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +2114,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>005028</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合A</t>
+          <t>鹏华研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2836</t>
+          <t>0.3800</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +2152,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10.07</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2830</t>
+          <t>0.3706</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +2190,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>012778</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧养老产业混合C</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>95.10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1980</t>
+          <t>0.3342</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +2228,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>420005</t>
+          <t>012778</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天弘周期策略混合A</t>
+          <t>中欧养老产业混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1916</t>
+          <t>0.3075</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1091,32 +2266,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001075</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合A</t>
+          <t>天弘周期策略混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1814</t>
+          <t>0.2624</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1129,36 +2304,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城中小创精选股票</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1518</t>
+          <t>0.2580</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +2342,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>012771</t>
+          <t>233007</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合C</t>
+          <t>大摩卓越成长混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>86.94</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1032</t>
+          <t>0.2011</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +2380,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011711</t>
+          <t>010314</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中欧睿泽混合C</t>
+          <t>摩根士丹利华鑫内需增长混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0684</t>
+          <t>0.1971</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1243,36 +2418,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>012069</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>天弘安康颐享12个月持有期混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>17.75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>23.41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0477</t>
+          <t>0.1686</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1281,36 +2456,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>015458</t>
+          <t>420001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>天弘周期策略混合C</t>
+          <t>天弘精选混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>74.66</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0420</t>
+          <t>0.1270</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1319,32 +2494,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>015769</t>
+          <t>010043</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>天弘低碳经济混合A</t>
+          <t>天弘安康颐和混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>79.16</t>
+          <t>23.17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.1219</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1357,36 +2532,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>015770</t>
+          <t>020023</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>天弘低碳经济混合C</t>
+          <t>国泰事件驱动策略混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>79.16</t>
+          <t>82.03</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0358</t>
+          <t>0.0780</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +2570,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>000573</t>
+          <t>016562</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>天弘通利混合</t>
+          <t>鹏华精选成长混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0737</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +2608,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004694</t>
+          <t>011711</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合A</t>
+          <t>中欧睿泽混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0701</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1471,32 +2646,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>015389</t>
+          <t>015769</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>宝盈转型动力灵活配置混合C</t>
+          <t>天弘低碳经济混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.0607</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1509,36 +2684,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>015481</t>
+          <t>012880</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中欧睿见混合C</t>
+          <t>国泰景气优选混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>75.90</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0538</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1547,36 +2722,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007084</t>
+          <t>015770</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>天治转型升级混合</t>
+          <t>天弘低碳经济混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0537</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1585,36 +2760,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>015460</t>
+          <t>011270</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合C</t>
+          <t>中银证券优势制造股票C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>93.20</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0532</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1623,36 +2798,906 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>004748</t>
+          <t>015458</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合C</t>
+          <t>天弘周期策略混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>86.39</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0471</t>
         </is>
       </c>
       <c r="H27" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000573</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>天弘通利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>017626</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011048</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天弘恒新混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011707</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>29.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012070</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘安康颐享12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015460</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选灵活配置混合型证券投资C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011049</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘恒新混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>42.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012881</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015592</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015459</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1717,32 +3762,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001955</t>
+          <t>162607</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中欧养老产业混合</t>
+          <t>景顺长城资源垄断混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.18</t>
+          <t>23.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8708</t>
+          <t>1.7417</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1755,36 +3800,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162607</t>
+          <t>001955</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城资源垄断混合(LOF)</t>
+          <t>中欧养老产业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.58</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.72</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8366</t>
+          <t>1.5915</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1793,36 +3838,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000772</t>
+          <t>010429</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中国回报灵活配置混合</t>
+          <t>中欧睿见混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.52</t>
+          <t>18.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5112</t>
+          <t>1.3437</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1831,32 +3876,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010429</t>
+          <t>000772</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧睿见混合</t>
+          <t>景顺长城中国回报灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.72</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4461</t>
+          <t>1.3417</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1879,26 +3924,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.25</t>
+          <t>8.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>99.40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.3083</t>
+          <t>0.8167</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1907,36 +3952,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>011710</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>中欧睿泽混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>8.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.44</t>
+          <t>90.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3222</t>
+          <t>0.6622</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1945,36 +3990,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012778</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧养老产业混合C</t>
+          <t>宝盈优势产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>10.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2958</t>
+          <t>0.2881</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1983,36 +4028,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>233007</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大摩卓越成长混合</t>
+          <t>天弘优质成长企业精选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2582</t>
+          <t>0.2836</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2021,36 +4066,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010314</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫内需增长混合</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>99.40</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2521</t>
+          <t>0.2830</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2059,36 +4104,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>012778</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>中欧养老产业混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>92.70</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1687</t>
+          <t>0.1980</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2097,36 +4142,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>420005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>天弘周期策略混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0578</t>
+          <t>0.1916</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2135,36 +4180,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011351</t>
+          <t>001075</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合A</t>
+          <t>宝盈转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0461</t>
+          <t>0.1814</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2173,36 +4218,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>景顺长城中小创精选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24.62</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.1518</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -2211,36 +4256,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>012771</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>宝盈优势产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>91.85</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.1032</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2249,36 +4294,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>350001</t>
+          <t>011711</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天治财富增长混合</t>
+          <t>中欧睿泽混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>70.51</t>
+          <t>90.88</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0245</t>
+          <t>0.0684</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2287,36 +4332,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004694</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合A</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>92.87</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0212</t>
+          <t>0.0477</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2325,36 +4370,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009499</t>
+          <t>015458</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合A</t>
+          <t>天弘周期策略混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0420</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -2363,36 +4408,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>015769</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
+          <t>天弘低碳经济混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>87.49</t>
+          <t>79.16</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0171</t>
+          <t>0.0414</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -2401,32 +4446,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>015770</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>天弘低碳经济混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>79.16</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0139</t>
+          <t>0.0358</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2439,32 +4484,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>000573</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>天弘通利混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2477,36 +4522,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011352</t>
+          <t>004694</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>金鹰年年邮益一年持有期混合C</t>
+          <t>天弘策略精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>28.25</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0042</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2515,36 +4560,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>015481</t>
+          <t>015389</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中欧睿见混合C</t>
+          <t>宝盈转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>90.88</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.0100</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2553,36 +4598,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009755</t>
+          <t>015481</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>景顺长城安鑫回报一年持有期混合C</t>
+          <t>中欧睿见混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2601,26 +4646,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2629,36 +4674,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004748</t>
+          <t>015460</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天弘策略精选灵活配置混合C</t>
+          <t>天弘优质成长企业精选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0029</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2667,34 +4712,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>014869</t>
+          <t>004748</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫内需增长混合C</t>
+          <t>天弘策略精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>86.39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2703,6 +4750,1048 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8366</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5112</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4461</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012778</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2521</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015481</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧睿见混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3290,7 +6379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4258,7 +7347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4656,7 +7745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5700,7 +8789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7008,1162 +10097,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166027</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3362</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160610</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华动力增长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1145</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009791</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.5913</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>163302</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大摩资源优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5218</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>233007</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大摩卓越成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4890</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>233001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大摩基础行业混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1635</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002252</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>融通成长30灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1589</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1087</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>233008</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大摩消费领航混合基金</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>79.84</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0915</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009230</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华安和混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0814</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006160</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博道启航混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0731</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007126</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博道远航混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0462</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007127</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博道远航混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001830</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>融通跨界成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009231</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏华安和混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>34.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>34.90</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006161</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博道启航混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.31</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004194</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006346</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>安信量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004195</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>招商中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006347</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安信量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>90.85</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>